--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ahsg-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ahsg-Insr.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N2">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O2">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P2">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q2">
-        <v>4.21036998616289</v>
+        <v>4.711789120365888</v>
       </c>
       <c r="R2">
-        <v>37.89332987546601</v>
+        <v>42.40610208329299</v>
       </c>
       <c r="S2">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="T2">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>17.55978</v>
       </c>
       <c r="O3">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P3">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q3">
         <v>1.755730211993333</v>
@@ -638,10 +638,10 @@
         <v>15.80157190794</v>
       </c>
       <c r="S3">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="T3">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N4">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O4">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P4">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q4">
-        <v>2.716598703637</v>
+        <v>3.287275363454334</v>
       </c>
       <c r="R4">
-        <v>24.449388332733</v>
+        <v>29.58547827108901</v>
       </c>
       <c r="S4">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="T4">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N5">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O5">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P5">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q5">
-        <v>2.673480988884333</v>
+        <v>1.622589052341833</v>
       </c>
       <c r="R5">
-        <v>16.040885933306</v>
+        <v>9.735534314051002</v>
       </c>
       <c r="S5">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="T5">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N6">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O6">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P6">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q6">
-        <v>2.524548307906444</v>
+        <v>3.253379347233889</v>
       </c>
       <c r="R6">
-        <v>22.720934771158</v>
+        <v>29.280414125105</v>
       </c>
       <c r="S6">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="T6">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
     </row>
   </sheetData>
